--- a/doc/zftlive集成组件一览表.xlsx
+++ b/doc/zftlive集成组件一览表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="zftlive集成组件一览表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,10 +37,6 @@
   </si>
   <si>
     <t>最新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jar映射说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,36 +106,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与Hibernate类似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nineoldandroids.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jake Wharton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android属性动画兼容低版本库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NineOldAndroids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">ormlite-core-4.48.jar 
 ormlite-android-4.48.jar </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">nineoldandroids-2.4.0.jar </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,12 +259,370 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>xstream-1.4.7.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xstream.codehaus.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML/Bean互转、DOM/SAX/PULL多种解析器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java端解析器、移动端是否适合有待考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achartengine-1.1.0.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AChartEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表插件-饼图/线形图/柱状图/折线图等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_volley_manager_1.04.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌推出的集成HTTP通信/DB操作/ImageLoader组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android-validation-komensky0.9.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡提示表单验证组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTA云监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mta.qq.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mta-sdk-2.0.3.jar
+mid-sdk-2.10.jar
+/armeabi/libMtaNativeCrash.so
+/armeabi-v7a/libMtaNativeCrash.so
+/mips/libMtaNativeCrash.so
+/x86/libMtaNativeCrash.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控APP各渠道下载量、程序崩溃异常、日活、点击次数、用户数量等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP上线跟踪必备组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信即时通讯IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libs目录jar/so映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.easemob.com/sdk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交即时通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交必备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位、LBS、推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIS、GPS、LBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://developer.baidu.com/map/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图、LBS、定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu-push-service-4.0.0.jar
+/armeabi/libbdpush_V2_0.so
+/mips/libbdpush_V2_0.so
+/libs/armeabi/libbdpush_V2_0.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://push.baidu.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>信鸽、百度推送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、友盟、极光、个推</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baidu-map-api_v3_0_0.jar
+badidu-loc-sdk_4.2.jar
+/armeabi/libBaiduMapSDK_v3_0_0.so
+/armeabi/liblocSDK4d.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOAP协议通信组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ksoap2-android.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebService接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOC注入组件-guice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用注解绑定layout、View、事件、Service等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roboguice-2.0.jar
+guice-3.0-no_aop.jar
+javax.inject.jar
+jsr305-1.3.9.jar
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单界面可以使用，复杂界面会影响性能，慎用，与Spring IOC相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低版本动画兼容库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低版本环境使用高级动画效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nineoldandroids-2.4.0.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nineoldandroids.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake Wharton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON/Bean互转GSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gson-2.2.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信鸽推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/armeabi/libtpnsSecurity.so
+/armeabi/libtpnsWatchdog.so
+/armeabi-v7a/libtpnsSecurity.so
+/armeabi-v7a/libtpnsWatchdog.so
+/mips/libtpnsSecurity.so
+/mips/libtpnsWatchdog.so
+/x86/libtpnsSecurity.so
+/x86/libtpnsWatchdog.so
+/x86_64/libtpnsSecurity.so
+/x86_64/libtpnsWatchdog.so
+xg_jg_filter_sdk_1.1.jar
+xg_sdk_v2.38_20150616_1057.jar
+xg_wup-1.0.0-SNAPSHOT.jar
+xg_mta_mid-sdk-2.20.jar（与MTA共用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.qcloud.com/product/xgpush.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easemobchat_2.2.0.jar
+/armeabi/libeasemob_jni.so（实时语音视频-可选占用体积太大）
+/armeabi/libeasemobservice.so
+/x86/libeasemobservice.so
+/x86_64/libeasemobservice.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已直接引入源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已直接引入源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Hibernate类似，已直接引入源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,8 +684,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +704,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,9 +765,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -436,8 +774,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,12 +821,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -497,7 +871,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,7 +906,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -741,16 +1115,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I39"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.125" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="44.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
@@ -767,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -779,215 +1155,239 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="2">
+      <c r="B3" s="13">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="13">
+        <f t="shared" ref="B4:B38" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B39" si="0">ROW()-2</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="I7" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D8" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="E9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="G9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="H9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="G11" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -995,129 +1395,253 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
+      <c r="H12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
+      <c r="C14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
+      <c r="C15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="C17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
+      <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="C19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
+      <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="C21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G21" s="4">
+        <v>2.38</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1125,7 +1649,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
       <c r="F22" s="6"/>
@@ -1138,7 +1662,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="6"/>
       <c r="E23" s="4"/>
       <c r="F23" s="6"/>
@@ -1151,7 +1675,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
       <c r="F24" s="6"/>
@@ -1164,7 +1688,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="6"/>
       <c r="E25" s="4"/>
       <c r="F25" s="6"/>
@@ -1177,7 +1701,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
       <c r="F26" s="6"/>
@@ -1190,7 +1714,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
       <c r="F27" s="6"/>
@@ -1203,8 +1727,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
@@ -1216,7 +1740,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="6"/>
@@ -1229,7 +1753,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="6"/>
@@ -1242,7 +1766,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="6"/>
@@ -1255,7 +1779,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="6"/>
@@ -1268,7 +1792,7 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="10"/>
+      <c r="C33" s="9"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="6"/>
@@ -1281,7 +1805,7 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="6"/>
@@ -1294,7 +1818,7 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="6"/>
@@ -1307,7 +1831,7 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="6"/>
@@ -1320,7 +1844,7 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="6"/>
@@ -1333,26 +1857,13 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="6"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1364,8 +1875,14 @@
     <hyperlink ref="F7" r:id="rId5"/>
     <hyperlink ref="F8" r:id="rId6"/>
     <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F13" r:id="rId8"/>
+    <hyperlink ref="F14" r:id="rId9"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F19" r:id="rId12"/>
+    <hyperlink ref="F21" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/doc/zftlive集成组件一览表.xlsx
+++ b/doc/zftlive集成组件一览表.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="zftlive集成组件一览表" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">zftlive集成组件一览表!$B$2:$J$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社会化分享、登录、第三方开放平台接口调用组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://mob.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,36 +160,277 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>v2.6.0</t>
+    <t>微信分享平台比较特殊，可以根据自己的需要选择对应平台的jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smssdk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信验证码组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharesdk提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mob.com/sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xstream-1.4.7.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xstream.codehaus.org/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.4.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML/Bean互转、DOM/SAX/PULL多种解析器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java端解析器、移动端是否适合有待考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achartengine-1.1.0.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AChartEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表插件-饼图/线形图/柱状图/折线图等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android_volley_manager_1.04.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌推出的集成HTTP通信/DB操作/ImageLoader组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android-validation-komensky0.9.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡泡提示表单验证组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不太实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTA云监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mta.qq.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控APP各渠道下载量、程序崩溃异常、日活、点击次数、用户数量等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP上线跟踪必备组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信即时通讯IM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>libs目录jar/so映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.easemob.com/sdk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交即时通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交必备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://developer.baidu.com/map/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度地图、LBS、定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOAP协议通信组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ksoap2-android.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebService接口调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOC注入组件-guice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用注解绑定layout、View、事件、Service等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">roboguice-2.0.jar
+guice-3.0-no_aop.jar
+javax.inject.jar
+jsr305-1.3.9.jar
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单界面可以使用，复杂界面会影响性能，慎用，与Spring IOC相似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低版本动画兼容库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低版本环境使用高级动画效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nineoldandroids-2.4.0.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://nineoldandroids.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jake Wharton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON/Bean互转GSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gson-2.2.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信鸽推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已直接引入源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已直接引入源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与Hibernate类似，已直接引入源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sharesdk-core-2.3.11.jar（核心jar）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-sharesdk-facebook-2.3.11.jar
-sharesdk-qq-2.3.11.jar
-sharesdk-qzone-2.3.11.jar
-sharesdk-sinaweibo-2.3.11.jar
-sharesdk-tencentweibo-2.3.11.jar
-sharesdk-twitter-2.3.11.jar
+      <t xml:space="preserve">MobTools.jar(与ShareSDK共用)
+SMSSDK-1.2.2.jar
 </t>
     </r>
     <r>
@@ -202,47 +442,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sharesdk-wechat-2.3.11.jar
-sharesdk-wechat-core-2.3.11.jar</t>
+      <t>libsmssdk.so</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobTools.jar(与ShareSDK共用)
+MobLogCollector.jar
+ShareSDK-Core-2.6.1.jar
+ShareSDK-Email-2.6.1.jar
+ShareSDK-QQ-2.6.1.jar
+ShareSDK-QZone-2.6.1.jar
+ShareSDK-ShortMessage-2.6.1.jar
+ShareSDK-SinaWeibo-2.6.1.jar
+ShareSDK-TencentWeibo-2.6.1.jar
+ShareSDK-Wechat-2.6.1.jar
+ShareSDK-Wechat-Core-2.6.1.jar
+ShareSDK-Wechat-Favorite-2.6.1.jar
+ShareSDK-Wechat-Moments-2.6.1.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会化分享、登录、第三方开放平台接口调用组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON/Bean互转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://code.google.com/p/google-gson/downloads/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-sharesdk-wechat-favorite-2.3.11.jar
-sharesdk-wechat-moments-2.3.11.jar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信分享平台比较特殊，可以根据自己的需要选择对应平台的jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smssdk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信验证码组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sharesdk提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mob.com/sms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">smssdk-analysis-sdk_0.0.3.jar
-smssdk-gui.jar
+      <t xml:space="preserve">easemobchat_2.2.0.jar
 </t>
     </r>
     <r>
@@ -254,203 +504,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>smssdk-mframework.jar
-smssdk-smssdk-1.0.2.jar</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xstream-1.4.7.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xstream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://xstream.codehaus.org/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.4.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML/Bean互转、DOM/SAX/PULL多种解析器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java端解析器、移动端是否适合有待考虑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achartengine-1.1.0.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AChartEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表插件-饼图/线形图/柱状图/折线图等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android_volley_manager_1.04.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volley</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌推出的集成HTTP通信/DB操作/ImageLoader组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>android-validation-komensky0.9.3.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泡泡提示表单验证组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不太实用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MTA云监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mta.qq.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mta-sdk-2.0.3.jar
-mid-sdk-2.10.jar
-/armeabi/libMtaNativeCrash.so
-/armeabi-v7a/libMtaNativeCrash.so
-/mips/libMtaNativeCrash.so
-/x86/libMtaNativeCrash.so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控APP各渠道下载量、程序崩溃异常、日活、点击次数、用户数量等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP上线跟踪必备组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环信即时通讯IM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>libs目录jar/so映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.easemob.com/sdk/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交即时通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交必备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定位、LBS、推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIS、GPS、LBS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://developer.baidu.com/map/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度地图、LBS、定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baidu-push-service-4.0.0.jar
-/armeabi/libbdpush_V2_0.so
-/mips/libbdpush_V2_0.so
-/libs/armeabi/libbdpush_V2_0.so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://push.baidu.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>信鸽、百度推送</t>
+      <t xml:space="preserve"> libeasemob_jni.so
+（实时语音视频-可选占用体积太大）</t>
     </r>
     <r>
       <rPr>
@@ -461,132 +516,22 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、友盟、极光、个推</t>
+      <t xml:space="preserve">
+libeasemobservice.so
+</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baidu-map-api_v3_0_0.jar
-badidu-loc-sdk_4.2.jar
-/armeabi/libBaiduMapSDK_v3_0_0.so
-/armeabi/liblocSDK4d.so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOAP协议通信组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ksoap2-android.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebService接口调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOC注入组件-guice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用注解绑定layout、View、事件、Service等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">roboguice-2.0.jar
-guice-3.0-no_aop.jar
-javax.inject.jar
-jsr305-1.3.9.jar
+    <t xml:space="preserve">xg_mta_mid-sdk-2.20.jar（与信鸽共用）
+mid-sdk-2.10.jar
+libMtaNativeCrash.so
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简单界面可以使用，复杂界面会影响性能，慎用，与Spring IOC相似</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低版本动画兼容库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低版本环境使用高级动画效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nineoldandroids-2.4.0.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://nineoldandroids.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jake Wharton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON/Bean互转GSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gson-2.2.2.jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谷歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信鸽推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/armeabi/libtpnsSecurity.so
-/armeabi/libtpnsWatchdog.so
-/armeabi-v7a/libtpnsSecurity.so
-/armeabi-v7a/libtpnsWatchdog.so
-/mips/libtpnsSecurity.so
-/mips/libtpnsWatchdog.so
-/x86/libtpnsSecurity.so
-/x86/libtpnsWatchdog.so
-/x86_64/libtpnsSecurity.so
-/x86_64/libtpnsWatchdog.so
+    <t>libtpnsSecurity.so
+libtpnsWatchdog.so
 xg_jg_filter_sdk_1.1.jar
 xg_sdk_v2.38_20150616_1057.jar
 xg_wup-1.0.0-SNAPSHOT.jar
@@ -594,27 +539,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.qcloud.com/product/xgpush.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>easemobchat_2.2.0.jar
-/armeabi/libeasemob_jni.so（实时语音视频-可选占用体积太大）
-/armeabi/libeasemobservice.so
-/x86/libeasemobservice.so
-/x86_64/libeasemobservice.so</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已直接引入源代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已直接引入源代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与Hibernate类似，已直接引入源代码</t>
+    <t xml:space="preserve">定位功能 -&gt; 原定位SDK，当前版本v6.0.5
+基础地图+检索功能+LBS云检索+计算工具 -&gt; 原Android SDK（地图SDK），当前版本v3.5.0
+导航功能（含TTS） -&gt; 原导航SDK，当前版本v2.0.0
+全景图功能 -&gt; 原全景图SDK，当前版本v2.1.0
+周边雷达功能--&gt;当前版本v1.0.0
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位、基础地图、LBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaiduLBS_Android_3.5.0.jar
+libBaiduMapSDK_v3_5_0_5.so
+liblocSDK6a.so</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xg.qq.com/xg/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,15 +632,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -742,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,14 +740,26 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I38"/>
+  <dimension ref="B1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1129,13 +1080,13 @@
     <col min="4" max="4" width="37.875" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="44.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="25.625" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="7" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="25.625" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -1155,13 +1106,16 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="13">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1181,14 +1135,17 @@
       <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="13">
         <f t="shared" ref="B4:B38" si="0">ROW()-2</f>
         <v>2</v>
@@ -1208,14 +1165,17 @@
       <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J4" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1235,14 +1195,17 @@
       <c r="G5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1262,12 +1225,15 @@
       <c r="G6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="2:9" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="2:10" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1275,376 +1241,421 @@
       <c r="C7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="23">
+        <v>42224</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="24">
+        <v>42224</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="21" t="s">
+      <c r="J8" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="10" t="s">
+    <row r="9" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="H9" s="24">
+        <v>42188</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="5" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="H10" s="24">
+        <v>42188</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4">
         <v>1.04</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="24">
+        <v>42188</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="25">
+        <v>42224</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="24">
+        <v>42188</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="D14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H14" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="J14" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="22" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="G15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="H15" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="J15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="22" t="s">
+    </row>
+    <row r="16" spans="2:10" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="16" t="s">
+      <c r="G16" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="23">
+        <v>42224</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="D17" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="57" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="13">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="E17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="24">
+        <v>42188</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="13">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="D18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
+      </c>
+      <c r="H18" s="24">
+        <v>42188</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="13">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+      <c r="H19" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="2">
+      <c r="H20" s="23">
+        <v>42188</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="13">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="C21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="4">
+      <c r="E21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="16">
         <v>2.38</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="23">
+        <v>42224</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1656,8 +1667,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1669,8 +1681,9 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1682,8 +1695,9 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1695,8 +1709,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1708,8 +1723,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1721,8 +1737,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1734,8 +1751,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1747,8 +1765,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1760,8 +1779,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1773,8 +1793,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1786,8 +1807,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1799,8 +1821,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1812,8 +1835,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1825,8 +1849,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1838,8 +1863,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1851,8 +1877,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="2:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1864,8 +1891,10 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:J2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1"/>
@@ -1875,12 +1904,12 @@
     <hyperlink ref="F7" r:id="rId5"/>
     <hyperlink ref="F8" r:id="rId6"/>
     <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F13" r:id="rId8"/>
-    <hyperlink ref="F14" r:id="rId9"/>
-    <hyperlink ref="F15" r:id="rId10"/>
-    <hyperlink ref="F16" r:id="rId11"/>
-    <hyperlink ref="F19" r:id="rId12"/>
-    <hyperlink ref="F21" r:id="rId13"/>
+    <hyperlink ref="F14" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F16" r:id="rId10"/>
+    <hyperlink ref="F19" r:id="rId11"/>
+    <hyperlink ref="F21" r:id="rId12"/>
+    <hyperlink ref="F12" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId14"/>
